--- a/config/AppConfig.xlsx
+++ b/config/AppConfig.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\game\config\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20730" windowHeight="6270"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,36 +21,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+  <si>
+    <t>编号</t>
   </si>
   <si>
     <t>socket ip 地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>socket 端口</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>http</t>
     </r>
     <r>
@@ -53,40 +47,36 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> ip 地址</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>127.0.0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http 端口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>socket 端口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>socketIp</t>
+  </si>
+  <si>
+    <t>socketPort</t>
   </si>
   <si>
     <t>httpIp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>socketIp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>socketPort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>http</t>
     </r>
     <r>
@@ -94,16 +84,27 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Port</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>i</t>
     </r>
     <r>
@@ -111,20 +112,21 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>nt</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.1.195</t>
-  </si>
-  <si>
-    <t>192.168.1.143</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>127.0.0.1</t>
+  </si>
+  <si>
+    <t>192.168.1.183</t>
+  </si>
+  <si>
+    <t>192.168.1.186</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -136,22 +138,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -160,6 +146,20 @@
       <color rgb="FF8000FF"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -171,8 +171,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="8" tint="0.79995117038483843"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -206,7 +206,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -217,7 +217,7 @@
   <dxfs count="1">
     <dxf>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor indexed="10"/>
         </patternFill>
       </fill>
@@ -525,68 +525,68 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.25" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -594,13 +594,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1">
-        <v>18080</v>
+        <v>8001</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1">
         <v>2000</v>
@@ -611,13 +611,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1">
         <v>18080</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E5" s="1">
         <v>2000</v>
@@ -627,19 +627,19 @@
       <c r="G6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A68:XFD109">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:B3">
       <formula1>"int,int[],float,float[],bool,bool[],string,string[]"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -651,7 +651,7 @@
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="6" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E6" s="1">
@@ -666,9 +666,9 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -678,10 +678,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
 </worksheet>
 </file>